--- a/Code/Results/Cases/Case_9_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.71006513349722</v>
+        <v>19.49069408406108</v>
       </c>
       <c r="C2">
-        <v>14.26028957349935</v>
+        <v>14.62140786596782</v>
       </c>
       <c r="D2">
-        <v>8.534696731621747</v>
+        <v>8.602226538884487</v>
       </c>
       <c r="E2">
-        <v>12.69906954080457</v>
+        <v>12.72342875871047</v>
       </c>
       <c r="F2">
-        <v>22.27498439041103</v>
+        <v>21.97569043176472</v>
       </c>
       <c r="G2">
-        <v>23.51377961887991</v>
+        <v>22.34046117532091</v>
       </c>
       <c r="H2">
-        <v>2.128334592859817</v>
+        <v>2.119721346611819</v>
       </c>
       <c r="I2">
-        <v>2.929916433304624</v>
+        <v>2.953499484269906</v>
       </c>
       <c r="J2">
-        <v>8.852652203505029</v>
+        <v>9.294060417058585</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.469930814362259</v>
+        <v>11.17787309077889</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.195494856329995</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.459209134269211</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.32862431446438</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.71426846554135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.37275713978029</v>
+      </c>
+      <c r="S2">
+        <v>14.48067501037264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.41108577338785</v>
+        <v>18.24033665089101</v>
       </c>
       <c r="C3">
-        <v>13.45663537079919</v>
+        <v>13.71081534412253</v>
       </c>
       <c r="D3">
-        <v>8.167398839049486</v>
+        <v>8.227789747081472</v>
       </c>
       <c r="E3">
-        <v>12.15924613004385</v>
+        <v>12.18622807999033</v>
       </c>
       <c r="F3">
-        <v>21.65842134793887</v>
+        <v>21.40459354343108</v>
       </c>
       <c r="G3">
-        <v>22.74316523267377</v>
+        <v>21.64424942440679</v>
       </c>
       <c r="H3">
-        <v>1.914310739171617</v>
+        <v>1.914509649879732</v>
       </c>
       <c r="I3">
-        <v>2.787278168105068</v>
+        <v>2.826841786383344</v>
       </c>
       <c r="J3">
-        <v>8.810609251042049</v>
+        <v>9.237448315706681</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.269133050974035</v>
+        <v>11.34597658330269</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.219689563505355</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.263757335254104</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.34731733215747</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.49609788734826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.36360797048484</v>
+      </c>
+      <c r="S3">
+        <v>14.29432578210626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.56189322527602</v>
+        <v>17.42275655405713</v>
       </c>
       <c r="C4">
-        <v>12.94120797402338</v>
+        <v>13.12552141922418</v>
       </c>
       <c r="D4">
-        <v>7.934466818589228</v>
+        <v>7.990571193537158</v>
       </c>
       <c r="E4">
-        <v>11.81537501162756</v>
+        <v>11.84427113970371</v>
       </c>
       <c r="F4">
-        <v>21.27808617204363</v>
+        <v>21.05156385109994</v>
       </c>
       <c r="G4">
-        <v>22.26743802463033</v>
+        <v>21.21596797826949</v>
       </c>
       <c r="H4">
-        <v>1.777847088713471</v>
+        <v>1.783601580646188</v>
       </c>
       <c r="I4">
-        <v>2.697186290306729</v>
+        <v>2.74697124194402</v>
       </c>
       <c r="J4">
-        <v>8.7876368045621</v>
+        <v>9.203427087105958</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.142263474633504</v>
+        <v>11.45210972770627</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.256759396036861</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.140316280801345</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.36185822028656</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.36636244567513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.36140018540459</v>
+      </c>
+      <c r="S4">
+        <v>14.18308922501246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.19733406377241</v>
+        <v>17.07157567289013</v>
       </c>
       <c r="C5">
-        <v>12.73662030811231</v>
+        <v>12.89162032880676</v>
       </c>
       <c r="D5">
-        <v>7.839275074130373</v>
+        <v>7.89366571785277</v>
       </c>
       <c r="E5">
-        <v>11.67277223461594</v>
+        <v>11.70253540327017</v>
       </c>
       <c r="F5">
-        <v>21.11638740413016</v>
+        <v>20.90085707258914</v>
       </c>
       <c r="G5">
-        <v>22.06126043166429</v>
+        <v>21.02938859219076</v>
       </c>
       <c r="H5">
-        <v>1.72075668015967</v>
+        <v>1.728820882625265</v>
       </c>
       <c r="I5">
-        <v>2.660406554622746</v>
+        <v>2.714721741777952</v>
       </c>
       <c r="J5">
-        <v>8.777032614997744</v>
+        <v>9.187843480915541</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.089460824627977</v>
+        <v>11.49194346412049</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.274980838979679</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.088952003763609</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.36982156528469</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.30964163793642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.36268856781647</v>
+      </c>
+      <c r="S5">
+        <v>14.13368879310188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.12931510720813</v>
+        <v>17.00585974461721</v>
       </c>
       <c r="C6">
-        <v>12.71564117151291</v>
+        <v>12.86596486405083</v>
       </c>
       <c r="D6">
-        <v>7.825189614585981</v>
+        <v>7.879296164343412</v>
       </c>
       <c r="E6">
-        <v>11.64956143634432</v>
+        <v>11.67947875461466</v>
       </c>
       <c r="F6">
-        <v>21.08162710054585</v>
+        <v>20.86797308033802</v>
       </c>
       <c r="G6">
-        <v>22.01240909837704</v>
+        <v>20.98367002890948</v>
       </c>
       <c r="H6">
-        <v>1.710962164194055</v>
+        <v>1.719421978316377</v>
       </c>
       <c r="I6">
-        <v>2.655168446938254</v>
+        <v>2.710599251673139</v>
       </c>
       <c r="J6">
-        <v>8.772934841376241</v>
+        <v>9.182935690086994</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.080350406676807</v>
+        <v>11.49353556686903</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.275432612270986</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.080088488789023</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.37276902689565</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.29425010007721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.36460748485885</v>
+      </c>
+      <c r="S6">
+        <v>14.11956674692238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.53918562909861</v>
+        <v>17.39420897857703</v>
       </c>
       <c r="C7">
-        <v>12.97412762826947</v>
+        <v>13.15098389293326</v>
       </c>
       <c r="D7">
-        <v>7.938096624177274</v>
+        <v>7.997286464933129</v>
       </c>
       <c r="E7">
-        <v>11.81520642693355</v>
+        <v>11.84514803763875</v>
       </c>
       <c r="F7">
-        <v>21.25453526643203</v>
+        <v>21.01472649240417</v>
       </c>
       <c r="G7">
-        <v>22.22522022191797</v>
+        <v>21.2678494431483</v>
       </c>
       <c r="H7">
-        <v>1.776447580173223</v>
+        <v>1.781736249446674</v>
       </c>
       <c r="I7">
-        <v>2.698807094835399</v>
+        <v>2.749071322119527</v>
       </c>
       <c r="J7">
-        <v>8.781010857026175</v>
+        <v>9.155915443125807</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.140771209567674</v>
+        <v>11.43466453598515</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.245799652766544</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.138297989142703</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.36635128602041</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.34918451663195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.36767661953883</v>
+      </c>
+      <c r="S7">
+        <v>14.15591970217997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.25108627825681</v>
+        <v>19.02942277417747</v>
       </c>
       <c r="C8">
-        <v>14.03193864256683</v>
+        <v>14.33389870628903</v>
       </c>
       <c r="D8">
-        <v>8.415807203581126</v>
+        <v>8.490722830882705</v>
       </c>
       <c r="E8">
-        <v>12.51779764018221</v>
+        <v>12.54632862175585</v>
       </c>
       <c r="F8">
-        <v>22.03557566795389</v>
+        <v>21.7085750966144</v>
       </c>
       <c r="G8">
-        <v>23.19865694955185</v>
+        <v>22.35213733537426</v>
       </c>
       <c r="H8">
-        <v>2.054786512182117</v>
+        <v>2.047602888462372</v>
       </c>
       <c r="I8">
-        <v>2.883512664128076</v>
+        <v>2.912115997236507</v>
       </c>
       <c r="J8">
-        <v>8.82907032857225</v>
+        <v>9.132573518752976</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.400477646835202</v>
+        <v>11.20559953259975</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.174751256972067</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.389838582958948</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.34054581796611</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.61689884957044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.38116710338796</v>
+      </c>
+      <c r="S8">
+        <v>14.36121433751016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.22929269573821</v>
+        <v>21.89316664191754</v>
       </c>
       <c r="C9">
-        <v>15.87076047899027</v>
+        <v>16.41212245998415</v>
       </c>
       <c r="D9">
-        <v>9.281840948302159</v>
+        <v>9.376426041738645</v>
       </c>
       <c r="E9">
-        <v>13.78959206604922</v>
+        <v>13.8136586237612</v>
       </c>
       <c r="F9">
-        <v>23.58174369120768</v>
+        <v>23.13023855108497</v>
       </c>
       <c r="G9">
-        <v>25.14322689747298</v>
+        <v>24.17987915264106</v>
       </c>
       <c r="H9">
-        <v>2.562317059719852</v>
+        <v>2.533604913250151</v>
       </c>
       <c r="I9">
-        <v>3.223742242411467</v>
+        <v>3.213397949562916</v>
       </c>
       <c r="J9">
-        <v>8.957855890228331</v>
+        <v>9.250891418832186</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.881230639131785</v>
+        <v>10.81681880002358</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.243517139084683</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.857766068081578</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.30670191965694</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.20290556270719</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.4204737068139</v>
+      </c>
+      <c r="S9">
+        <v>14.85466888566422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.1261152743806</v>
+        <v>23.69044843627818</v>
       </c>
       <c r="C10">
-        <v>17.08670494357226</v>
+        <v>17.74081102260264</v>
       </c>
       <c r="D10">
-        <v>9.781725654058365</v>
+        <v>9.904182552929441</v>
       </c>
       <c r="E10">
-        <v>14.43065653340152</v>
+        <v>14.45684712215009</v>
       </c>
       <c r="F10">
-        <v>24.52403764691553</v>
+        <v>23.91783183621684</v>
       </c>
       <c r="G10">
-        <v>26.35503495130515</v>
+        <v>25.79453856720476</v>
       </c>
       <c r="H10">
-        <v>2.897120400723193</v>
+        <v>2.851276869945563</v>
       </c>
       <c r="I10">
-        <v>3.459019610233902</v>
+        <v>3.420670113177056</v>
       </c>
       <c r="J10">
-        <v>9.034591989824145</v>
+        <v>9.090629936782479</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.107199118822898</v>
+        <v>10.50005598346994</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.340490371380438</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.072692953555858</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.3171277936041</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.57039321403829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.49699496260177</v>
+      </c>
+      <c r="S10">
+        <v>15.10045528201178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.58072571064657</v>
+        <v>24.08896120754216</v>
       </c>
       <c r="C11">
-        <v>17.333193635875</v>
+        <v>17.90674960855993</v>
       </c>
       <c r="D11">
-        <v>9.183668420649299</v>
+        <v>9.331002261787969</v>
       </c>
       <c r="E11">
-        <v>12.80394893991871</v>
+        <v>12.83084848871273</v>
       </c>
       <c r="F11">
-        <v>23.52481645051117</v>
+        <v>22.78763298960624</v>
       </c>
       <c r="G11">
-        <v>25.39531626607345</v>
+        <v>25.88767041920983</v>
       </c>
       <c r="H11">
-        <v>3.550968157274524</v>
+        <v>3.50713547150697</v>
       </c>
       <c r="I11">
-        <v>3.529206084709879</v>
+        <v>3.481002872847608</v>
       </c>
       <c r="J11">
-        <v>8.805196368717523</v>
+        <v>8.450118149080671</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.334905330484847</v>
+        <v>10.1427347218616</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.065491162046586</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.293996661052502</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.48231058958702</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.07761775049842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.7084910747301</v>
+      </c>
+      <c r="S11">
+        <v>14.50484122990144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.59884099333589</v>
+        <v>24.09650445532201</v>
       </c>
       <c r="C12">
-        <v>17.24763485876412</v>
+        <v>17.75064851367221</v>
       </c>
       <c r="D12">
-        <v>8.566061686611491</v>
+        <v>8.718026177978537</v>
       </c>
       <c r="E12">
-        <v>11.34670203971177</v>
+        <v>11.3673200445438</v>
       </c>
       <c r="F12">
-        <v>22.49394668167499</v>
+        <v>21.72350842626525</v>
       </c>
       <c r="G12">
-        <v>24.36103390766842</v>
+        <v>25.37163149554322</v>
       </c>
       <c r="H12">
-        <v>4.623200680141812</v>
+        <v>4.588807575973519</v>
       </c>
       <c r="I12">
-        <v>3.538492761679505</v>
+        <v>3.487253688442042</v>
       </c>
       <c r="J12">
-        <v>8.600067824928324</v>
+        <v>8.107131704862139</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.719347306719619</v>
+        <v>9.944071620191968</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.837696604091501</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.677479080462103</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.61823715290923</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.59626693841539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.86156293869244</v>
+      </c>
+      <c r="S12">
+        <v>13.99861048546765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.2630830435569</v>
+        <v>23.79631455682022</v>
       </c>
       <c r="C13">
-        <v>16.9426570807082</v>
+        <v>17.39186472552625</v>
       </c>
       <c r="D13">
-        <v>7.889689685668001</v>
+        <v>8.024906600431365</v>
       </c>
       <c r="E13">
-        <v>9.934773345312818</v>
+        <v>9.941707238214867</v>
       </c>
       <c r="F13">
-        <v>21.32919142100819</v>
+        <v>20.62781509041225</v>
       </c>
       <c r="G13">
-        <v>23.1286990307764</v>
+        <v>24.0735953602581</v>
       </c>
       <c r="H13">
-        <v>5.828524038787293</v>
+        <v>5.803452242474934</v>
       </c>
       <c r="I13">
-        <v>3.504742400173331</v>
+        <v>3.457761426786787</v>
       </c>
       <c r="J13">
-        <v>8.390563793434218</v>
+        <v>8.003777418211353</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.204608521670489</v>
+        <v>9.833148427124536</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.626661130432969</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.16689266706901</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.74365910922806</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.06508857915821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.97577552997484</v>
+      </c>
+      <c r="S13">
+        <v>13.52440486956168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.85906941988956</v>
+        <v>23.43813887527147</v>
       </c>
       <c r="C14">
-        <v>16.63454802838531</v>
+        <v>17.05221544078946</v>
       </c>
       <c r="D14">
-        <v>7.386911425434666</v>
+        <v>7.501227967772732</v>
       </c>
       <c r="E14">
-        <v>8.998150074320948</v>
+        <v>8.99284450662679</v>
       </c>
       <c r="F14">
-        <v>20.44175893986672</v>
+        <v>19.83306050944297</v>
       </c>
       <c r="G14">
-        <v>22.1556671196708</v>
+        <v>22.79832955737523</v>
       </c>
       <c r="H14">
-        <v>6.719306979955972</v>
+        <v>6.699854869524454</v>
       </c>
       <c r="I14">
-        <v>3.462641911491922</v>
+        <v>3.422203735063703</v>
       </c>
       <c r="J14">
-        <v>8.240699972736365</v>
+        <v>8.022945988318893</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.920290902460014</v>
+        <v>9.788444826711276</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.486975483555364</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.887664853678788</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.8280291374012</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.66547683908552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.03921895662497</v>
+      </c>
+      <c r="S14">
+        <v>13.19956620946491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.67784732390324</v>
+        <v>23.27729679370695</v>
       </c>
       <c r="C15">
-        <v>16.52260330051953</v>
+        <v>16.93495479189084</v>
       </c>
       <c r="D15">
-        <v>7.252670304774268</v>
+        <v>7.358239938308516</v>
       </c>
       <c r="E15">
-        <v>8.774807830473227</v>
+        <v>8.766202068880972</v>
       </c>
       <c r="F15">
-        <v>20.19167829745059</v>
+        <v>19.62431443400167</v>
       </c>
       <c r="G15">
-        <v>21.86416262380267</v>
+        <v>22.32422484727242</v>
       </c>
       <c r="H15">
-        <v>6.922540495791991</v>
+        <v>6.904692258783203</v>
       </c>
       <c r="I15">
-        <v>3.444006031652452</v>
+        <v>3.407179193770388</v>
       </c>
       <c r="J15">
-        <v>8.201919205616226</v>
+        <v>8.066157686438077</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.861515842543124</v>
+        <v>9.789859601199302</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.453688343960088</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.830928043155507</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.84747689661723</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.55350867396519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.04802313433079</v>
+      </c>
+      <c r="S15">
+        <v>13.12059922791332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.93797532499916</v>
+        <v>22.61598459850084</v>
       </c>
       <c r="C16">
-        <v>16.08258987961185</v>
+        <v>16.50920900522044</v>
       </c>
       <c r="D16">
-        <v>7.147112880366327</v>
+        <v>7.22280795131422</v>
       </c>
       <c r="E16">
-        <v>8.72624740979955</v>
+        <v>8.716716872498997</v>
       </c>
       <c r="F16">
-        <v>19.97256933197574</v>
+        <v>19.56068904655241</v>
       </c>
       <c r="G16">
-        <v>21.51295119635501</v>
+        <v>21.08254019948185</v>
       </c>
       <c r="H16">
-        <v>6.649431281353673</v>
+        <v>6.635570860591618</v>
       </c>
       <c r="I16">
-        <v>3.352570490873831</v>
+        <v>3.330721660248469</v>
       </c>
       <c r="J16">
-        <v>8.205873180029757</v>
+        <v>8.421820892825961</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.85558555828896</v>
+        <v>9.931035162821287</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.49513266184965</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.831800367885509</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.81001276234537</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.48162145689381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.96284695859363</v>
+      </c>
+      <c r="S16">
+        <v>13.17075597653143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.58288282359702</v>
+        <v>22.28919723910867</v>
       </c>
       <c r="C17">
-        <v>15.91131732151326</v>
+        <v>16.35729566400616</v>
       </c>
       <c r="D17">
-        <v>7.340786615174075</v>
+        <v>7.407876096247781</v>
       </c>
       <c r="E17">
-        <v>9.178414737753281</v>
+        <v>9.173697296245424</v>
       </c>
       <c r="F17">
-        <v>20.28714670131945</v>
+        <v>19.92834694480474</v>
       </c>
       <c r="G17">
-        <v>21.77790132797231</v>
+        <v>20.95341322336639</v>
       </c>
       <c r="H17">
-        <v>5.917153849106965</v>
+        <v>5.903985090828242</v>
       </c>
       <c r="I17">
-        <v>3.304729815428048</v>
+        <v>3.290465806400221</v>
       </c>
       <c r="J17">
-        <v>8.289028751023942</v>
+        <v>8.652314628086085</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.987911323427989</v>
+        <v>10.06811546259874</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.592313908863437</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.966563159926578</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.73808569880725</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.64229366387874</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.87011148232443</v>
+      </c>
+      <c r="S17">
+        <v>13.37215937766522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.54306780786352</v>
+        <v>22.24682513526825</v>
       </c>
       <c r="C18">
-        <v>15.93361993375398</v>
+        <v>16.41863582168556</v>
       </c>
       <c r="D18">
-        <v>7.816787111723878</v>
+        <v>7.886636825264678</v>
       </c>
       <c r="E18">
-        <v>10.19978747981631</v>
+        <v>10.20252181770951</v>
       </c>
       <c r="F18">
-        <v>21.10879985279172</v>
+        <v>20.74735731531489</v>
       </c>
       <c r="G18">
-        <v>22.62526923084091</v>
+        <v>21.60782112947155</v>
       </c>
       <c r="H18">
-        <v>4.759068373863806</v>
+        <v>4.743438537712796</v>
       </c>
       <c r="I18">
-        <v>3.287487177400226</v>
+        <v>3.274674877300834</v>
       </c>
       <c r="J18">
-        <v>8.452974352817579</v>
+        <v>8.86637984028372</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.331825232409762</v>
+        <v>10.23306569277268</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.759803769271555</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.310307874593674</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.62546628207357</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.02968604355474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.75126652335413</v>
+      </c>
+      <c r="S18">
+        <v>13.75634985144776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.73440456782079</v>
+        <v>22.4156302057476</v>
       </c>
       <c r="C19">
-        <v>16.16522000045747</v>
+        <v>16.70765344675833</v>
       </c>
       <c r="D19">
-        <v>8.493524184831296</v>
+        <v>8.57257568400091</v>
       </c>
       <c r="E19">
-        <v>11.68789758340016</v>
+        <v>11.69852421902253</v>
       </c>
       <c r="F19">
-        <v>22.23649698907839</v>
+        <v>21.83929198872643</v>
       </c>
       <c r="G19">
-        <v>23.80023430875601</v>
+        <v>22.68904116020364</v>
       </c>
       <c r="H19">
-        <v>3.530985259158365</v>
+        <v>3.508430813146765</v>
       </c>
       <c r="I19">
-        <v>3.304745315294182</v>
+        <v>3.290764703473025</v>
       </c>
       <c r="J19">
-        <v>8.658450914686437</v>
+        <v>9.06950504327286</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.912552133254603</v>
+        <v>10.39804491929875</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.955934486506547</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.889226081195736</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.50267758395244</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.54055636546313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.63177104784179</v>
+      </c>
+      <c r="S19">
+        <v>14.23813226708112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.59940950327772</v>
+        <v>23.20668163374333</v>
       </c>
       <c r="C20">
-        <v>16.86199489709783</v>
+        <v>17.50975256131298</v>
       </c>
       <c r="D20">
-        <v>9.661215620755719</v>
+        <v>9.767006331811041</v>
       </c>
       <c r="E20">
-        <v>14.2599707982307</v>
+        <v>14.28232413556718</v>
       </c>
       <c r="F20">
-        <v>24.21241367562851</v>
+        <v>23.69062869907383</v>
       </c>
       <c r="G20">
-        <v>25.92567129063907</v>
+        <v>24.96776223414383</v>
       </c>
       <c r="H20">
-        <v>2.807199363409627</v>
+        <v>2.767366245503511</v>
       </c>
       <c r="I20">
-        <v>3.405349922265303</v>
+        <v>3.37891210088358</v>
       </c>
       <c r="J20">
-        <v>8.992779048868954</v>
+        <v>9.249999477039312</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.041974098163603</v>
+        <v>10.56270306583974</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.282857456172409</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.012001459911811</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.32985294303858</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.42224468610363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.48613493253646</v>
+      </c>
+      <c r="S20">
+        <v>15.01992946932658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.05136873119578</v>
+        <v>24.49311302253829</v>
       </c>
       <c r="C21">
-        <v>17.79516674478931</v>
+        <v>18.42573076001655</v>
       </c>
       <c r="D21">
-        <v>10.17669676964282</v>
+        <v>10.35438690387762</v>
       </c>
       <c r="E21">
-        <v>15.08055330220002</v>
+        <v>15.12346426311796</v>
       </c>
       <c r="F21">
-        <v>25.1906367467671</v>
+        <v>24.31772864951049</v>
       </c>
       <c r="G21">
-        <v>27.13041941872945</v>
+        <v>27.98206933931237</v>
       </c>
       <c r="H21">
-        <v>3.081920100215476</v>
+        <v>3.021220854588831</v>
       </c>
       <c r="I21">
-        <v>3.588114296550565</v>
+        <v>3.53234821123424</v>
       </c>
       <c r="J21">
-        <v>9.106700933242776</v>
+        <v>8.494710985205012</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.375509472585442</v>
+        <v>10.31213044796137</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.357254811936835</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.328652158074004</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.31554711326149</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.83498462679839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.56216065293053</v>
+      </c>
+      <c r="S21">
+        <v>15.15041769647688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.95240428866393</v>
+        <v>25.28642976722093</v>
       </c>
       <c r="C22">
-        <v>18.33091179104234</v>
+        <v>18.93881756859366</v>
       </c>
       <c r="D22">
-        <v>10.45058958653916</v>
+        <v>10.67708210273264</v>
       </c>
       <c r="E22">
-        <v>15.48497684068834</v>
+        <v>15.54245183400446</v>
       </c>
       <c r="F22">
-        <v>25.76334402060258</v>
+        <v>24.65085568772921</v>
       </c>
       <c r="G22">
-        <v>27.86326970266323</v>
+        <v>29.98349289315302</v>
       </c>
       <c r="H22">
-        <v>3.249859070662296</v>
+        <v>3.175976496963183</v>
       </c>
       <c r="I22">
-        <v>3.700427105777992</v>
+        <v>3.624832814072109</v>
       </c>
       <c r="J22">
-        <v>9.176806472625895</v>
+        <v>8.001588270567673</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.535251547460073</v>
+        <v>10.1498757575866</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.414234037245565</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.477445086251615</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.31092472297729</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.08857449876181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.62056768718704</v>
+      </c>
+      <c r="S22">
+        <v>15.20806464915086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.4906776120004</v>
+        <v>24.89348944364814</v>
       </c>
       <c r="C23">
-        <v>18.01508748387342</v>
+        <v>18.64996713911118</v>
       </c>
       <c r="D23">
-        <v>10.30062052398264</v>
+        <v>10.49433975077179</v>
       </c>
       <c r="E23">
-        <v>15.26865885827978</v>
+        <v>15.31581222082296</v>
       </c>
       <c r="F23">
-        <v>25.47949101767572</v>
+        <v>24.52538463606838</v>
       </c>
       <c r="G23">
-        <v>27.51100908719749</v>
+        <v>28.7459611759996</v>
       </c>
       <c r="H23">
-        <v>3.161160565303768</v>
+        <v>3.09512389892565</v>
       </c>
       <c r="I23">
-        <v>3.637736551749814</v>
+        <v>3.572262538385421</v>
       </c>
       <c r="J23">
-        <v>9.14634420343527</v>
+        <v>8.3494435639206</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.45109923079761</v>
+        <v>10.25334283764541</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.41066512925346</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.400171762185678</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.30685765771991</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.97031774579649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.57678485935195</v>
+      </c>
+      <c r="S23">
+        <v>15.21912177504983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.63147985382104</v>
+        <v>23.23736093130555</v>
       </c>
       <c r="C24">
-        <v>16.82545605630121</v>
+        <v>17.4784585179364</v>
       </c>
       <c r="D24">
-        <v>9.722366109409554</v>
+        <v>9.828573679969955</v>
       </c>
       <c r="E24">
-        <v>14.42526621609006</v>
+        <v>14.44807605031375</v>
       </c>
       <c r="F24">
-        <v>24.35904748904944</v>
+        <v>23.83541726140988</v>
       </c>
       <c r="G24">
-        <v>26.10161073094172</v>
+        <v>25.12280197630821</v>
       </c>
       <c r="H24">
-        <v>2.816673502313274</v>
+        <v>2.776709919889157</v>
       </c>
       <c r="I24">
-        <v>3.400901594845131</v>
+        <v>3.372402806552678</v>
       </c>
       <c r="J24">
-        <v>9.025677170482711</v>
+        <v>9.287208492520973</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.123224865309833</v>
+        <v>10.60126601205949</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.328348528669563</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.093191148469677</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.30806754004603</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.50160900189378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.46323719529963</v>
+      </c>
+      <c r="S24">
+        <v>15.09745529768457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.44004343383798</v>
+        <v>21.14104325496197</v>
       </c>
       <c r="C25">
-        <v>15.44791562238815</v>
+        <v>15.93813255753486</v>
       </c>
       <c r="D25">
-        <v>9.062567203984974</v>
+        <v>9.147886610682242</v>
       </c>
       <c r="E25">
-        <v>13.45998656239683</v>
+        <v>13.48374315493171</v>
       </c>
       <c r="F25">
-        <v>23.13146673554501</v>
+        <v>22.73213103206336</v>
       </c>
       <c r="G25">
-        <v>24.55748272202603</v>
+        <v>23.50102385958895</v>
       </c>
       <c r="H25">
-        <v>2.428117011583102</v>
+        <v>2.405812741929771</v>
       </c>
       <c r="I25">
-        <v>3.137534252725607</v>
+        <v>3.139733661766448</v>
       </c>
       <c r="J25">
-        <v>8.909055428103416</v>
+        <v>9.263689612378432</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.753306612070625</v>
+        <v>10.9056336702359</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.189636545475339</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.73391349767572</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.32192683352892</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.0128921679539</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.41353737998058</v>
+      </c>
+      <c r="S25">
+        <v>14.70495598714844</v>
       </c>
     </row>
   </sheetData>
